--- a/HashTable/ComparisonOfHashFunctions/ResultTable15.xlsx
+++ b/HashTable/ComparisonOfHashFunctions/ResultTable15.xlsx
@@ -174,11 +174,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1584666621"/>
-        <c:axId val="997984717"/>
+        <c:axId val="413326181"/>
+        <c:axId val="690581854"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1584666621"/>
+        <c:axId val="413326181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -230,10 +230,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997984717"/>
+        <c:crossAx val="690581854"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="997984717"/>
+        <c:axId val="690581854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,7 +297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584666621"/>
+        <c:crossAx val="413326181"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -363,11 +363,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122640338"/>
-        <c:axId val="1631567078"/>
+        <c:axId val="853112810"/>
+        <c:axId val="563428135"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122640338"/>
+        <c:axId val="853112810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,10 +419,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631567078"/>
+        <c:crossAx val="563428135"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631567078"/>
+        <c:axId val="563428135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122640338"/>
+        <c:crossAx val="853112810"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -552,11 +552,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="564857896"/>
-        <c:axId val="1864918614"/>
+        <c:axId val="1126819100"/>
+        <c:axId val="668409295"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="564857896"/>
+        <c:axId val="1126819100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,10 +608,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1864918614"/>
+        <c:crossAx val="668409295"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1864918614"/>
+        <c:axId val="668409295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564857896"/>
+        <c:crossAx val="1126819100"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -741,11 +741,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2112759670"/>
-        <c:axId val="1509117178"/>
+        <c:axId val="859580703"/>
+        <c:axId val="1954854042"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112759670"/>
+        <c:axId val="859580703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,10 +797,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509117178"/>
+        <c:crossAx val="1954854042"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509117178"/>
+        <c:axId val="1954854042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112759670"/>
+        <c:crossAx val="859580703"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -930,11 +930,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="860761289"/>
-        <c:axId val="217799146"/>
+        <c:axId val="508873831"/>
+        <c:axId val="888294440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="860761289"/>
+        <c:axId val="508873831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,10 +986,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217799146"/>
+        <c:crossAx val="888294440"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217799146"/>
+        <c:axId val="888294440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860761289"/>
+        <c:crossAx val="508873831"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1119,11 +1119,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="485203676"/>
-        <c:axId val="1624788965"/>
+        <c:axId val="629623123"/>
+        <c:axId val="657006906"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485203676"/>
+        <c:axId val="629623123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,10 +1175,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624788965"/>
+        <c:crossAx val="657006906"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1624788965"/>
+        <c:axId val="657006906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1243,7 +1243,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485203676"/>
+        <c:crossAx val="629623123"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1309,11 +1309,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="568904618"/>
-        <c:axId val="1937907782"/>
+        <c:axId val="1734376344"/>
+        <c:axId val="1930339139"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568904618"/>
+        <c:axId val="1734376344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,10 +1365,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1937907782"/>
+        <c:crossAx val="1930339139"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1937907782"/>
+        <c:axId val="1930339139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1433,9 +1433,281 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568904618"/>
+        <c:crossAx val="1734376344"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Hash functions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultTable15!$D$1:$EAJ$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultTable15!$D$6:$EAJ$6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultTable15!$D$1:$EAJ$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultTable15!$D$7:$EAJ$7</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultTable15!$D$1:$EAJ$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultTable15!$D$8:$EAJ$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2016117905"/>
+        <c:axId val="1895733084"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2016117905"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895733084"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895733084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2016117905"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
@@ -1613,6 +1885,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="16516350" cy="10182225"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Диаграмма"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
